--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,25 +470,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>@vA7medi العفو وسعدنا بخدمتك 💙 شاكرين تواصلك معنا</t>
+          <t>@eXtraStores #مشاوير_توصيل_مندوب في مدينة #ابها_خميس_مشيط_احد_رفيدة 
+( أسواق _ مستشفى _ متنزهات _ توصيل طلبات و مطا… https://t.co/DZ1MAhhFUt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jokes and Unrealted</t>
+          <t>Promotion</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44364.20748842593</v>
+        <v>44364.2137037037</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>eXtra Stores</t>
+          <t>TaxxxxxyAbha</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>@eXtraStores</t>
+          <t>@TaxxxxxyAbha</t>
         </is>
       </c>
     </row>
@@ -498,25 +499,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>@eXtraStores اها تمام، شكرا</t>
+          <t>@vA7medi العفو وسعدنا بخدمتك 💙 شاكرين تواصلك معنا</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Complain</t>
+          <t>Jokes and Unrealted</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44364.20587962963</v>
+        <v>44364.20748842593</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>احمد</t>
+          <t>eXtra Stores</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>@vA7medi</t>
+          <t>@eXtraStores</t>
         </is>
       </c>
     </row>
@@ -526,25 +527,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>@vA7medi يا هلا احمد ، هذا الموقع غير تابع لنا ، ونرجو اخذ الحيطة والحذر من المواقع الوهمية وعدم التعامل معها .. يومك سعيد</t>
+          <t>@eXtraStores اها تمام، شكرا</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Info</t>
+          <t>Complain</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44364.20469907407</v>
+        <v>44364.20587962963</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>eXtra Stores</t>
+          <t>احمد</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>@eXtraStores</t>
+          <t>@vA7medi</t>
         </is>
       </c>
     </row>
@@ -554,25 +555,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>@H__29H @eXtraStores هههههه</t>
+          <t>@vA7medi يا هلا احمد ، هذا الموقع غير تابع لنا ، ونرجو اخذ الحيطة والحذر من المواقع الوهمية وعدم التعامل معها .. يومك سعيد</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jokes and Unrealted</t>
+          <t>Info</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44364.18868055556</v>
+        <v>44364.20469907407</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mohammed bin Saleh</t>
+          <t>eXtra Stores</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>@MSG_665432</t>
+          <t>@eXtraStores</t>
         </is>
       </c>
     </row>
@@ -582,25 +583,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>@turkikka10 @AlRajhiBank @eXtraStores @JarirBookstore @Saco_KSA وانا كذلك</t>
+          <t>@H__29H @eXtraStores هههههه</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Complain</t>
+          <t>Jokes and Unrealted</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44364.18625</v>
+        <v>44364.18868055556</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>meachel</t>
+          <t>Mohammed bin Saleh</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>@meachel200</t>
+          <t>@MSG_665432</t>
         </is>
       </c>
     </row>
@@ -610,7 +611,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>@eXtraStores @MCgovSA اتمنى تشوفوا لنا حل معاهم</t>
+          <t>@turkikka10 @AlRajhiBank @eXtraStores @JarirBookstore @Saco_KSA وانا كذلك</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -619,16 +620,16 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44364.18234953703</v>
+        <v>44364.18625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Khadija Al Mousa!</t>
+          <t>meachel</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>@thelateeighties</t>
+          <t>@meachel200</t>
         </is>
       </c>
     </row>
@@ -638,25 +639,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>@minokawaar يا هلا ، نرجو منك التواصل معنا على الخاص وتزويدنا برقم الجوال لنستطيع مساعدتك بشكل افضل .. يومك سعيد https://t.co/ilBuEzK662</t>
+          <t>@eXtraStores @MCgovSA اتمنى تشوفوا لنا حل معاهم</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Request</t>
+          <t>Complain</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44364.17491898148</v>
+        <v>44364.18234953703</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>eXtra Stores</t>
+          <t>Khadija Al Mousa!</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>@eXtraStores</t>
+          <t>@thelateeighties</t>
         </is>
       </c>
     </row>
@@ -666,25 +667,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>@Mo0ody149 @eXtraStores للأسف دفعت لهم المبلغ كامل وللان ٣ ايام مافي رد</t>
+          <t>@minokawaar يا هلا ، نرجو منك التواصل معنا على الخاص وتزويدنا برقم الجوال لنستطيع مساعدتك بشكل افضل .. يومك سعيد https://t.co/ilBuEzK662</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Complain</t>
+          <t>Request</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44364.17268518519</v>
+        <v>44364.17491898148</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PTwejdan</t>
+          <t>eXtra Stores</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>@wejdan_o0o</t>
+          <t>@eXtraStores</t>
         </is>
       </c>
     </row>
@@ -694,25 +695,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>@eXtraStores هل كل الابتوبات لها سنتين ضمان؟</t>
+          <t>@Mo0ody149 @eXtraStores للأسف دفعت لهم المبلغ كامل وللان ٣ ايام مافي رد</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Info</t>
+          <t>Complain</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44364.16182870371</v>
+        <v>44364.17268518519</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOKAWA</t>
+          <t>PTwejdan</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>@minokawaar</t>
+          <t>@wejdan_o0o</t>
         </is>
       </c>
     </row>
@@ -722,8 +723,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>@minokawaar ياهلا بك، يبدأ دوام قسم الصيانة بعد الساعة 4 مساء 
-يومك سعيد</t>
+          <t>@eXtraStores هل كل الابتوبات لها سنتين ضمان؟</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -732,16 +732,16 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44364.16085648148</v>
+        <v>44364.16182870371</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>eXtra Stores</t>
+          <t>MINOKAWA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>@eXtraStores</t>
+          <t>@minokawaar</t>
         </is>
       </c>
     </row>
@@ -751,35 +751,64 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>@minokawaar ياهلا بك، يبدأ دوام قسم الصيانة بعد الساعة 4 مساء 
+يومك سعيد</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Info</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44364.16085648148</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>eXtra Stores</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>@eXtraStores</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>@Muhamadalwadoud وعليكم السلام محمد، صحيح متوفر شاحن ابل ,لمزيد من التفاصيل تفضل الرابط التالي:  
 https://t.co/yuWWFWTDad
 رضائكم أولويتنا</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Info</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D13" s="2" t="n">
         <v>44364.15424768518</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>eXtra Stores</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>@eXtraStores</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>@eXtraStores 
 السلام عليكم ورحمة الله وبركاته 
@@ -788,50 +817,22 @@
 ألقى عندك… https://t.co/GwXYBc60Tb</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Info</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D14" s="2" t="n">
         <v>44364.15314814815</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>محمـد عبـدالودود ¶الإنـســان 🦋</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>@Muhamadalwadoud</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>@eXtraStores قسم الصيانه في اكسترا يفتح مع فتح المعرض ؟</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Complain</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>44364.14275462963</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MINOKAWA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>@minokawaar</t>
         </is>
       </c>
     </row>
@@ -840,6 +841,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
+        <is>
+          <t>@eXtraStores قسم الصيانه في اكسترا يفتح مع فتح المعرض ؟</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Complain</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44364.14275462963</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MINOKAWA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>@minokawaar</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>@eXtraStores 
 السلام عليكم ورحمة الله وبركاته 
@@ -848,50 +877,22 @@
 ألقى عندكم شاحن لآيفون ١١ برو ماكس</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Info</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D16" s="2" t="n">
         <v>44364.125625</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>محمـد عبـدالودود ¶الإنـســان 🦋</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>@Muhamadalwadoud</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>@thelateeighties @eXtraStores اول درس في السعادة الزوجية انك ما عمرك تدخلي باب اكسترا</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Complain</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>44364.12326388889</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ranji</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>@RanaAlibrahim</t>
         </is>
       </c>
     </row>
@@ -901,25 +902,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>@Mo0ody149 @wejdan_o0o ياهلا بك،نأسف لسماع ذ</t>
+          <t>@thelateeighties @eXtraStores اول درس في السعادة الزوجية انك ما عمرك تدخلي باب اكسترا</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Info</t>
+          <t>Complain</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44364.10043981481</v>
+        <v>44364.12326388889</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>eXtra Stores</t>
+          <t>ranji</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>@eXtraStores</t>
+          <t>@RanaAlibrahim</t>
         </is>
       </c>
     </row>
@@ -929,26 +930,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>حلفت عليكم تاخذونه 😒
-@eXtraStores https://t.co/bmWnzoPURu</t>
+          <t>@Mo0ody149 @wejdan_o0o ياهلا بك،نأسف لسماع ذ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Complain</t>
+          <t>Info</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44364.09961805555</v>
+        <v>44364.10043981481</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>هَـنوف</t>
+          <t>eXtra Stores</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>@H__29H</t>
+          <t>@eXtraStores</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,8 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>@wejdan_o0o @eXtraStores لو انها شاشة سامسونج كرستال الغيها كلها عيوب</t>
+          <t>حلفت عليكم تاخذونه 😒
+@eXtraStores https://t.co/bmWnzoPURu</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -967,16 +968,16 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44364.09679398148</v>
+        <v>44364.09961805555</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mo0ody . MBS🇸🇦</t>
+          <t>هَـنوف</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>@Mo0ody149</t>
+          <t>@H__29H</t>
         </is>
       </c>
     </row>
@@ -986,55 +987,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>@wejdan_o0o @eXtraStores لو انها شاشة سامسونج كرستال الغيها كلها عيوب</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Complain</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44364.09679398148</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Mo0ody . MBS🇸🇦</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>@Mo0ody149</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>@eXtraStores 
 لماذا تم رفض نشر تعليقي بحجة ان الشاشة حقتي فيها عيب ويقول إن الخلل صار من الشحن او المصنع
 والمندوب ر… https://t.co/fj5laPiUoN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Complain</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Complain</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
         <v>44364.09634259259</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Mo0ody . MBS🇸🇦</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>@Mo0ody149</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>@eXtraStores انا احبكم 👍🌹</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Complain</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>44364.09375</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>🇸🇦نورا الروقي</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>@N_ROQ</t>
         </is>
       </c>
     </row>
@@ -1044,25 +1045,25 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>@eXtraStores يوم البدع</t>
+          <t>@eXtraStores انا احبكم 👍🌹</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jokes and Unrealted</t>
+          <t>Complain</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44364.06113425926</v>
+        <v>44364.09375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sb503</t>
+          <t>🇸🇦نورا الروقي</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>@MAJED_A_M77</t>
+          <t>@N_ROQ</t>
         </is>
       </c>
     </row>
@@ -1072,25 +1073,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>@Ahll00000 @eXtraStores مرحبا احلام .. هل اشتريتي الفريزر ؟ ممكن تجربتك معاها لان خاطري بوحده</t>
+          <t>@eXtraStores يوم البدع</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Info</t>
+          <t>Jokes and Unrealted</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44364.04799768519</v>
+        <v>44364.06113425926</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>👑</t>
+          <t>sb503</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>@_993H</t>
+          <t>@MAJED_A_M77</t>
         </is>
       </c>
     </row>
@@ -1100,25 +1101,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>@eXtraStores طيب</t>
+          <t>@Ahll00000 @eXtraStores مرحبا احلام .. هل اشتريتي الفريزر ؟ ممكن تجربتك معاها لان خاطري بوحده</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Complain</t>
+          <t>Info</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44364.04116898148</v>
+        <v>44364.04799768519</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>دانه سيري</t>
+          <t>👑</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>@daanah4</t>
+          <t>@_993H</t>
         </is>
       </c>
     </row>
@@ -1128,25 +1129,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>@eXtraStores بإنتظار ردكم في حل المشكله ٠٠٠٠٠٠٠٠٠٠</t>
+          <t>@eXtraStores طيب</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Info</t>
+          <t>Complain</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44364.02836805556</v>
+        <v>44364.04116898148</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PTwejdan</t>
+          <t>دانه سيري</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>@wejdan_o0o</t>
+          <t>@daanah4</t>
         </is>
       </c>
     </row>
@@ -1156,26 +1157,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>@wejdan_o0o ياهلا وجدان، نأسف لسماع ذلك وحبينا نفيدك تم الرد على الخاص
-يومك سعيد</t>
+          <t>@eXtraStores بإنتظار ردكم في حل المشكله ٠٠٠٠٠٠٠٠٠٠</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Request</t>
+          <t>Info</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44364.0275</v>
+        <v>44364.02836805556</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>eXtra Stores</t>
+          <t>PTwejdan</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>@eXtraStores</t>
+          <t>@wejdan_o0o</t>
         </is>
       </c>
     </row>
@@ -1185,25 +1185,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>@eXtraStores دخلنا في اليوم الثالث ولم يتم حل المشكله (ماوصل التلفزيون للان) مع العلم موعد التسليم قبل ٣ ايام وللان… https://t.co/gOh7K3gbHS</t>
+          <t>@wejdan_o0o ياهلا وجدان، نأسف لسماع ذلك وحبينا نفيدك تم الرد على الخاص
+يومك سعيد</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Complain</t>
+          <t>Request</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44364.02549768519</v>
+        <v>44364.0275</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PTwejdan</t>
+          <t>eXtra Stores</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>@wejdan_o0o</t>
+          <t>@eXtraStores</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1214,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>@eXtraStores الخاص</t>
+          <t>@eXtraStores دخلنا في اليوم الثالث ولم يتم حل المشكله (ماوصل التلفزيون للان) مع العلم موعد التسليم قبل ٣ ايام وللان… https://t.co/gOh7K3gbHS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1222,16 +1223,16 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44364.00924768519</v>
+        <v>44364.02549768519</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ً</t>
+          <t>PTwejdan</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>@yoonmeen16</t>
+          <t>@wejdan_o0o</t>
         </is>
       </c>
     </row>
@@ -1241,26 +1242,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>@yoonmeen16 ياهلا بك، تم الرد على الخاص
-يومك سعيد</t>
+          <t>@eXtraStores الخاص</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Request</t>
+          <t>Complain</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44364.00200231482</v>
+        <v>44364.00924768519</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>eXtra Stores</t>
+          <t>ً</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>@eXtraStores</t>
+          <t>@yoonmeen16</t>
         </is>
       </c>
     </row>
@@ -1270,25 +1270,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>@eXtraStores الخاص</t>
+          <t>@yoonmeen16 ياهلا بك، تم الرد على الخاص
+يومك سعيد</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Complain</t>
+          <t>Request</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44364.00146990741</v>
+        <v>44364.00200231482</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ً</t>
+          <t>eXtra Stores</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>@yoonmeen16</t>
+          <t>@eXtraStores</t>
         </is>
       </c>
     </row>
@@ -1298,26 +1299,25 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>@daanah4 ياهلا دانه، يمكنك زيارتنا في أقرب فرع لك ليقوم فريق الصيانه بفحص الجهاز ومساعدتك بشكل أفضل.
- تسعدنا زيارتكم دائمًا</t>
+          <t>@eXtraStores الخاص</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Info</t>
+          <t>Complain</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44363.98188657407</v>
+        <v>44364.00146990741</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>eXtra Stores</t>
+          <t>ً</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>@eXtraStores</t>
+          <t>@yoonmeen16</t>
         </is>
       </c>
     </row>
@@ -1327,25 +1327,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>@eXtraStores الان ارسله بالرسائل الخاصة</t>
+          <t>@daanah4 ياهلا دانه، يمكنك زيارتنا في أقرب فرع لك ليقوم فريق الصيانه بفحص الجهاز ومساعدتك بشكل أفضل.
+ تسعدنا زيارتكم دائمًا</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Complain</t>
+          <t>Info</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44363.96758101852</v>
+        <v>44363.98188657407</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Abdulrahman</t>
+          <t>eXtra Stores</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>@Twi_20174</t>
+          <t>@eXtraStores</t>
         </is>
       </c>
     </row>
@@ -1355,26 +1356,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>@Twi_20174 ياهلا عبدالرحمن، ممكن تزودنا برقم الجوال عبر الرسائل الخاصة لخدمتك بشكل أفضل؟ 
-رضائكم أولويتنا.</t>
+          <t>@eXtraStores الان ارسله بالرسائل الخاصة</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Info</t>
+          <t>Complain</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44363.96538194444</v>
+        <v>44363.96758101852</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>eXtra Stores</t>
+          <t>Abdulrahman</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>@eXtraStores</t>
+          <t>@Twi_20174</t>
         </is>
       </c>
     </row>
@@ -1384,8 +1384,8 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>@Esam_7_7 ياهلا عصام، عذرًا لا يتوفر اكود خصم حاليًا 
-يومك سعيد</t>
+          <t>@Twi_20174 ياهلا عبدالرحمن، ممكن تزودنا برقم الجوال عبر الرسائل الخاصة لخدمتك بشكل أفضل؟ 
+رضائكم أولويتنا.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44363.96400462963</v>
+        <v>44363.96538194444</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1413,55 +1413,56 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>@Esam_7_7 ياهلا عصام، عذرًا لا يتوفر اكود خصم حاليًا 
+يومك سعيد</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Info</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>44363.96400462963</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>eXtra Stores</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>@eXtraStores</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>@eXtraStores السوق أرخص بكثير
 ترى اسعاركم نار مقارنه بالسوق والمحلات والشركات الأخرى فالسوق المحلي
 ماادري كيف الناس… https://t.co/PGREwp39U7</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Complain</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Complain</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
         <v>44363.95793981481</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>تباعد🚶• عوده •🚶بحذر....🇸🇦...😷⁩</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>@ALSHATRE3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>@eXtraStores اخذت ايباد قبل كم شهر. اليوم اللمس مااشتغل فجأة كيف اتواصل معكم ؟</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Complain</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>44363.95528935185</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>دانه سيري</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>@daanah4</t>
         </is>
       </c>
     </row>
@@ -1471,25 +1472,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>@XB_ARABIA @tokyogames @eXtraStores في اكسترا غير متوفرة في موقعهم</t>
+          <t>@eXtraStores اخذت ايباد قبل كم شهر. اليوم اللمس مااشتغل فجأة كيف اتواصل معكم ؟</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Info</t>
+          <t>Complain</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44363.91452546296</v>
+        <v>44363.95528935185</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Abdullah</t>
+          <t>دانه سيري</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>@Abode241_</t>
+          <t>@daanah4</t>
         </is>
       </c>
     </row>
@@ -1499,25 +1500,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>@XB_ARABIA @tokyogames @eXtraStores اخيرا تاخروا كثير</t>
+          <t>@XB_ARABIA @tokyogames @eXtraStores في اكسترا غير متوفرة في موقعهم</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jokes and Unrealted</t>
+          <t>Info</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44363.91324074074</v>
+        <v>44363.91452546296</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ibrahim ⭐️⭐️</t>
+          <t>Abdullah</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>@DanteCrying</t>
+          <t>@Abode241_</t>
         </is>
       </c>
     </row>
@@ -1527,55 +1528,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>@XB_ARABIA @tokyogames @eXtraStores اخيرا تاخروا كثير</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Jokes and Unrealted</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>44363.91324074074</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Ibrahim ⭐️⭐️</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>@DanteCrying</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>@eXtraStores اكسترا 
 * حصرياً بمعارض اكسترا
 - احصل على بطاقة هدايا بقيمة 100 ريال على كل 1000 ريال مشتريات من الأجه… https://t.co/RZygk3qHOr</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Complain</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Complain</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
         <v>44363.89614583334</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>وفر صح</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>@wafar_s7</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>@eXtraStores @MCgovSA  اشتريت جهاز ايفون من فرع اكسترا حيث ان الجهاز تحت الضمان  ولايوجد به خدش او كسر الجهاز طفي ف… https://t.co/CRf456sDAz</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Complain</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>44363.89357638889</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Abdulrahman</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>@Twi_20174</t>
         </is>
       </c>
     </row>
@@ -1585,25 +1586,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>@eXtraStores فيه كود خصم</t>
+          <t>@eXtraStores @MCgovSA  اشتريت جهاز ايفون من فرع اكسترا حيث ان الجهاز تحت الضمان  ولايوجد به خدش او كسر الجهاز طفي ف… https://t.co/CRf456sDAz</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Jokes and Unrealted</t>
+          <t>Complain</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44363.89162037037</v>
+        <v>44363.89357638889</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>عصام يوسف الغفيص</t>
+          <t>Abdulrahman</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>@Esam_7_7</t>
+          <t>@Twi_20174</t>
         </is>
       </c>
     </row>
@@ -1613,25 +1614,25 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>@ReemAlg93 @noon @eXtraStores @noon_cares كفو 🙏</t>
+          <t>@eXtraStores فيه كود خصم</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Complain</t>
+          <t>Jokes and Unrealted</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44363.89033564815</v>
+        <v>44363.89162037037</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>awad_alsayri</t>
+          <t>عصام يوسف الغفيص</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>@awaq202</t>
+          <t>@Esam_7_7</t>
         </is>
       </c>
     </row>
@@ -1641,12 +1642,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>#نون_خلي_ولي_سعوديين
- @noon 
-@eXtraStores 
-@noon_cares 
-تم حذف التطبيق 
-ولن استقبل اي شحنة من مندوب اجنبي يوصلها نو… https://t.co/UazVnOYhfk</t>
+          <t>@ReemAlg93 @noon @eXtraStores @noon_cares كفو 🙏</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1655,270 +1651,16 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44363.88773148148</v>
+        <v>44363.89033564815</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ريم الفلا</t>
+          <t>awad_alsayri</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>@ReemAlg93</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>@eXtraStores @moh_amma_d وانا بعد تواصلوا معي ع الخاص لان خدمتكم زفت</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Complain</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>44363.88512731482</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>wasimah abd alnabi</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>@waswoomy</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>@eXtraStores ما اثق في عروضكم ابداً ، مدري ليش احسكم تستغفلونا !</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Info</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>44363.88020833334</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>الزبير | ALZOBAIR</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>@alsanyoor</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>*الشروط والأحكام https://t.co/11TZ4SthXJ</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Info</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>44363.87737268519</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>eXtra Stores</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>@eXtraStores</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>حصرياً بمعارض اكسترا في #يوم_الأب! له هدية مع التحية 😍 
-احصل على 🎁 بطاقة هدايا بقيمة 100 ريال على كل 1000 ريال مشت… https://t.co/8EZl1db2j0</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Promotion</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>44363.87712962963</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>eXtra Stores</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>@eXtraStores</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>@moh_amma_d ياهلا محمد، تم الرد على الخاص
-يومك سعيد</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Request</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>44363.87105324074</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>eXtra Stores</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>@eXtraStores</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>@JarirBookstore @eXtraStores عشن سويت منشن ف تغريده وحده ماتردو 🤦🏻‍♀️ ردووو https://t.co/p3aJT9zJsn</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Complain</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>44363.86042824074</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>W.E.J.D.A.N.🦋 #TheMedium</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>@JeJe94wa</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>@i29999 @thelateeighties @eXtraStores المفروض تكون كذا https://t.co/wxikvAdDki</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Complain</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>44363.86020833333</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>ઇસ્માઇલ..⁦🌪️⁩</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>@Smor2Smor3</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>@Smor2Smor3 @thelateeighties @eXtraStores هذي تعتبر damaged فعلا المفروض ماتباع بالمعرض ع انها سليمه ويغشون فيها العملاء</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Complain</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>44363.8405324074</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Ali ..</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>@i29999</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>@eXtraStores السلام عليكم..شريت مكيفات من فرع الباحة وكان موعد التركيب يوم الاحد الماضي ولم يتصل احد وعندي مراجعتي… https://t.co/kbJgPLfXBX</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Complain</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>44363.81591435185</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Ahmad123</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>@Ahmad1210863785</t>
+          <t>@awaq202</t>
         </is>
       </c>
     </row>
